--- a/data/proteins.xlsx
+++ b/data/proteins.xlsx
@@ -1401,7 +1401,7 @@
     <t>4ki8:A:1:ADP:601,4ki8:B:1:ADP:601,4ki8:C:1:ADP:601,4ki8:D:1:ADP:601,4ki8:E:1:ADP:601,4ki8:F:1:ADP:601,4ki8:G:1:ADP:601</t>
   </si>
   <si>
-    <t>1GRL is only has alpha carbons for some residues. This results in floating disconnected atoms that must be removed before analysis.</t>
+    <t>1GRL is only has alpha carbons for some residues. This results in floating disconnected atoms that must be removed before analysis. Pathways? Why aren't there any?</t>
   </si>
 </sst>
 </file>
@@ -1731,8 +1731,8 @@
     <col customWidth="1" min="10" max="10" width="24.88"/>
     <col customWidth="1" min="11" max="11" width="9.13"/>
     <col customWidth="1" min="12" max="12" width="23.88"/>
-    <col customWidth="1" min="13" max="13" width="17.38"/>
-    <col customWidth="1" min="14" max="14" width="37.5"/>
+    <col customWidth="1" min="13" max="13" width="86.75"/>
+    <col customWidth="1" min="14" max="14" width="88.5"/>
     <col customWidth="1" min="15" max="15" width="98.88"/>
     <col customWidth="1" min="17" max="17" width="20.5"/>
     <col customWidth="1" min="18" max="18" width="24.38"/>
